--- a/bmi_df_boy.xlsx
+++ b/bmi_df_boy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,9 +534,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>16.53</v>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
         <v>-1.123</v>
       </c>
@@ -573,66 +571,7 @@
       <c r="P2" t="n">
         <v>23.449</v>
       </c>
-      <c r="Q2" t="n">
-        <v>0.7796576294001107</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>john123</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>65</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>11.24</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-0.8322000000000001</v>
-      </c>
-      <c r="F3" t="n">
-        <v>15.2619</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0849</v>
-      </c>
-      <c r="H3" t="n">
-        <v>11.207</v>
-      </c>
-      <c r="I3" t="n">
-        <v>12.114</v>
-      </c>
-      <c r="J3" t="n">
-        <v>13.021</v>
-      </c>
-      <c r="K3" t="n">
-        <v>14.06</v>
-      </c>
-      <c r="L3" t="n">
-        <v>15.262</v>
-      </c>
-      <c r="M3" t="n">
-        <v>16.667</v>
-      </c>
-      <c r="N3" t="n">
-        <v>18.328</v>
-      </c>
-      <c r="O3" t="n">
-        <v>20.32</v>
-      </c>
-      <c r="P3" t="n">
-        <v>22.312</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>-4.102909697010577</v>
-      </c>
+      <c r="Q2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bmi_df_boy.xlsx
+++ b/bmi_df_boy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,7 +534,9 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>16.53</v>
+      </c>
       <c r="E2" t="n">
         <v>-1.123</v>
       </c>
@@ -571,7 +573,66 @@
       <c r="P2" t="n">
         <v>23.449</v>
       </c>
-      <c r="Q2" t="inlineStr"/>
+      <c r="Q2" t="n">
+        <v>0.7796576294001107</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>john123</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>65</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.8322000000000001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15.2619</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0849</v>
+      </c>
+      <c r="H3" t="n">
+        <v>11.207</v>
+      </c>
+      <c r="I3" t="n">
+        <v>12.114</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13.021</v>
+      </c>
+      <c r="K3" t="n">
+        <v>14.06</v>
+      </c>
+      <c r="L3" t="n">
+        <v>15.262</v>
+      </c>
+      <c r="M3" t="n">
+        <v>16.667</v>
+      </c>
+      <c r="N3" t="n">
+        <v>18.328</v>
+      </c>
+      <c r="O3" t="n">
+        <v>20.32</v>
+      </c>
+      <c r="P3" t="n">
+        <v>22.312</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-4.102909697010577</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
